--- a/data/kongeornterritorier_modellerte_perFylke.xlsx
+++ b/data/kongeornterritorier_modellerte_perFylke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26575324-1121-4E00-95FD-C5014F4E9944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3501C69D-651C-4542-8881-8D16271BFF73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{F9645BB1-E230-4CC4-A667-111DA6AB4F59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F9645BB1-E230-4CC4-A667-111DA6AB4F59}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <r>
       <t>Ekstensiv </t>
@@ -1604,13 +1604,31 @@
       </rPr>
       <t>(± 95% C.I.) </t>
     </r>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,6 +1689,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1804,7 +1830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1881,6 +1907,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2195,18 +2223,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C689B610-B376-4BC5-A26D-534E0EEE7E6D}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="24" t="s">
         <v>0</v>
@@ -2221,7 +2252,7 @@
       </c>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2243,8 +2274,26 @@
       <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2266,8 +2315,34 @@
       <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>105</v>
+      </c>
+      <c r="K3">
+        <v>133</v>
+      </c>
+      <c r="L3" s="27">
+        <f>(J3+K3)/2</f>
+        <v>119</v>
+      </c>
+      <c r="M3" s="27">
+        <f>ROUND(L3,0)</f>
+        <v>119</v>
+      </c>
+      <c r="N3">
+        <f>K3-J3</f>
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <f>N3/2</f>
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <f>O3^2</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
@@ -2289,8 +2364,34 @@
       <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>113</v>
+      </c>
+      <c r="K4">
+        <v>159</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:L18" si="0">(J4+K4)/2</f>
+        <v>136</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" ref="M4:M18" si="1">ROUND(L4,0)</f>
+        <v>136</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N18" si="2">K4-J4</f>
+        <v>46</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O18" si="3">N4/2</f>
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P18" si="4">O4^2</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2312,8 +2413,34 @@
       <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>103</v>
+      </c>
+      <c r="K5">
+        <v>137</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
@@ -2335,8 +2462,34 @@
       <c r="G6" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>63</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -2358,8 +2511,34 @@
       <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>78</v>
+      </c>
+      <c r="K7">
+        <v>91</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>84.5</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -2381,8 +2560,34 @@
       <c r="G8" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>95</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>342.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2609,34 @@
       <c r="G9" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>62</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>49</v>
       </c>
@@ -2427,8 +2658,34 @@
       <c r="G10" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>51</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -2450,8 +2707,34 @@
       <c r="G11" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>36</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -2473,8 +2756,34 @@
       <c r="G12" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>37</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -2496,8 +2805,34 @@
       <c r="G13" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>46</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>69</v>
       </c>
@@ -2519,8 +2854,34 @@
       <c r="G14" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>53</v>
+      </c>
+      <c r="K14">
+        <v>69</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="M14" s="27">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -2542,8 +2903,34 @@
       <c r="G15" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>78</v>
       </c>
@@ -2565,8 +2952,34 @@
       <c r="G16" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>61</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="M16" s="27">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2588,8 +3001,34 @@
       <c r="G17" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <v>72</v>
+      </c>
+      <c r="K17">
+        <v>78</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M17" s="27">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>87</v>
       </c>
@@ -2611,8 +3050,34 @@
       <c r="G18" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>52</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M18" s="27">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
@@ -2633,6 +3098,38 @@
       </c>
       <c r="G19" s="4" t="s">
         <v>97</v>
+      </c>
+      <c r="J19" s="26">
+        <f>SUM(J3:J18)</f>
+        <v>873</v>
+      </c>
+      <c r="L19" s="26">
+        <f>SUM(L3:L18)</f>
+        <v>1022</v>
+      </c>
+      <c r="M19" s="26">
+        <f>SUM(M3:M18)</f>
+        <v>1026</v>
+      </c>
+      <c r="P19" s="26">
+        <f>SUM(P3:P18)</f>
+        <v>1951</v>
+      </c>
+      <c r="Q19">
+        <f>SQRT(P19)</f>
+        <v>44.170125650715555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="27">
+        <f>M19-Q19</f>
+        <v>981.82987434928441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>M19+Q19</f>
+        <v>1070.1701256507156</v>
       </c>
     </row>
   </sheetData>
@@ -2650,17 +3147,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8064154-FFF0-407C-8ACF-CF29961C4551}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +3165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2692,7 +3189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -2700,7 +3197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -2708,7 +3205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2716,7 +3213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -2724,7 +3221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -2732,7 +3229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -2740,7 +3237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -2748,7 +3245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -2756,7 +3253,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>69</v>
       </c>
@@ -2764,7 +3261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2772,7 +3269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
@@ -2780,7 +3277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
@@ -2788,7 +3285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>87</v>
       </c>
@@ -2796,7 +3293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
